--- a/2025_冬ゲームコスト表.xlsx
+++ b/2025_冬ゲームコスト表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SasakiTaiga\Documents\GitHub\WinterGame_2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBEE84AC-9C1F-460D-8B7E-1EB662FA1A0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67BB2000-9D0A-46EF-B31D-94073497A912}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A7566CFE-2916-499A-9B03-90D4A40E65D0}"/>
   </bookViews>
@@ -891,8 +891,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A64E8C5C-0215-4D6D-A7A8-9AD81DDE0766}">
   <dimension ref="A1:P38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -937,11 +937,11 @@
       </c>
       <c r="F3">
         <f>SUM(C3:C51)</f>
-        <v>139</v>
+        <v>183</v>
       </c>
       <c r="G3">
         <f>F3/76</f>
-        <v>1.8289473684210527</v>
+        <v>2.4078947368421053</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.4">
@@ -1609,7 +1609,9 @@
       <c r="B33" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C33" s="2"/>
+      <c r="C33" s="2">
+        <v>3</v>
+      </c>
       <c r="D33" s="2"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.4">
@@ -1617,7 +1619,9 @@
       <c r="B34" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C34" s="2"/>
+      <c r="C34" s="2">
+        <v>6</v>
+      </c>
       <c r="D34" s="2"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.4">
@@ -1625,7 +1629,9 @@
       <c r="B35" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C35" s="2"/>
+      <c r="C35" s="2">
+        <v>8</v>
+      </c>
       <c r="D35" s="2"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.4">
@@ -1633,7 +1639,9 @@
       <c r="B36" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C36" s="2"/>
+      <c r="C36" s="2">
+        <v>4</v>
+      </c>
       <c r="D36" s="2"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.4">
@@ -1641,7 +1649,9 @@
       <c r="B37" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C37" s="2"/>
+      <c r="C37" s="2">
+        <v>8</v>
+      </c>
       <c r="D37" s="2"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.4">
@@ -1649,7 +1659,9 @@
       <c r="B38" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C38" s="2"/>
+      <c r="C38" s="2">
+        <v>15</v>
+      </c>
       <c r="D38" s="2"/>
     </row>
   </sheetData>

--- a/2025_冬ゲームコスト表.xlsx
+++ b/2025_冬ゲームコスト表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SasakiTaiga\Documents\GitHub\WinterGame_2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67BB2000-9D0A-46EF-B31D-94073497A912}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96E91E7C-1B35-4C58-A43E-5766DD3CB438}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A7566CFE-2916-499A-9B03-90D4A40E65D0}"/>
   </bookViews>
@@ -891,8 +891,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A64E8C5C-0215-4D6D-A7A8-9AD81DDE0766}">
   <dimension ref="A1:P38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1622,7 +1622,9 @@
       <c r="C34" s="2">
         <v>6</v>
       </c>
-      <c r="D34" s="2"/>
+      <c r="D34" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A35" s="2"/>
@@ -1632,7 +1634,9 @@
       <c r="C35" s="2">
         <v>8</v>
       </c>
-      <c r="D35" s="2"/>
+      <c r="D35" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A36" s="2"/>
